--- a/biology/Médecine/1765_en_santé_et_médecine/1765_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1765_en_santé_et_médecine/1765_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1765_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1765_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1765 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1765_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1765_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Floride occidentale britannique
-2 septembre : mort  de la fièvre jaune à Pensacola de Henri Bouquet officier mercenaire suisse de l'armée britannique, soupçonné d'avoir utilisé des couvertures contaminées avec la variole pour exterminer les Amérindiens en 1763[1].
+2 septembre : mort  de la fièvre jaune à Pensacola de Henri Bouquet officier mercenaire suisse de l'armée britannique, soupçonné d'avoir utilisé des couvertures contaminées avec la variole pour exterminer les Amérindiens en 1763.
 France
 En France, querelle médicale sur la grossesse.
-Le chirurgien-major d’un bâtiment de la Marine royale est reconnu comme membre de l’état-major et, à ce titre, reçu à la table du capitaine[2].</t>
+Le chirurgien-major d’un bâtiment de la Marine royale est reconnu comme membre de l’état-major et, à ce titre, reçu à la table du capitaine.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1765_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1765_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1765_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1765_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,11 +587,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8 février : Charles-Louis Dumas (mort en 1813),  médecin français[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>8 février : Charles-Louis Dumas (mort en 1813),  médecin français.
 18 mars : Marc Antoine Baudot (mort en 1837), médecin et révolutionnaire français, député à l'Assemblée nationale législative puis à la Convention nationale.
-28 avril : Alexandre-Urbain Yvan (mort en 1839), chirurgien français, au service personnel de Napoléon Bonaparte[4].
+28 avril : Alexandre-Urbain Yvan (mort en 1839), chirurgien français, au service personnel de Napoléon Bonaparte.
 27 mars : Franz Xaver von Baader (mort en 1841), médecin et philosophe allemand.
 3 avril : Ferdinand Guillemardet (mort en 1809), médecin et  homme politique français.
 22 août : Carl Ludwig Willdenow (mort en 1812), botaniste et pharmacien allemand.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1765_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1765_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>13 octobre : Wilhem Heinrich Kramer (né en 1724), médecin et naturaliste allemand[5].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>13 octobre : Wilhem Heinrich Kramer (né en 1724), médecin et naturaliste allemand.</t>
         </is>
       </c>
     </row>
